--- a/doc/tables/VRML_decision_table_SCA.xlsx
+++ b/doc/tables/VRML_decision_table_SCA.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="9">
   <si>
     <t>Year</t>
   </si>
@@ -38,19 +38,19 @@
     <t>Spawning Output</t>
   </si>
   <si>
-    <t>P* = 0.45, sigma = 1</t>
+    <t>Unfished Spawning Output</t>
   </si>
   <si>
-    <t>P* = 0.40, sigma = 1</t>
+    <t>$p^\ast = 0.45, \sigma = 1$</t>
   </si>
   <si>
-    <t>Long-term Equil. Yield (MSY proxy, SPR50%), no buffer</t>
+    <t>$p^\ast = 0.40, \sigma = 1$</t>
   </si>
   <si>
-    <t>Long-term Equil. Yield (MSY proxy, SPR50%), with buffer</t>
+    <t>Long-term Equil. Yield (MSY proxy, $SPR_{50\%}$), no buffer</t>
   </si>
   <si>
-    <t>Unfished Spawning Output</t>
+    <t>Long-term Equil. Yield (MSY proxy, $SPR_{50\%}$), with buffer</t>
   </si>
 </sst>
 </file>
@@ -74,7 +74,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -82,22 +82,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,11 +370,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="47.53515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
@@ -400,23 +393,25 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="1"/>
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
       <c r="B2">
         <v>2021</v>
       </c>
@@ -447,7 +442,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2022</v>
@@ -479,7 +474,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>2023</v>
@@ -511,7 +506,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>2024</v>
@@ -543,7 +538,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>2025</v>
@@ -575,7 +570,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>2026</v>
@@ -607,7 +602,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>2027</v>
@@ -639,7 +634,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>2028</v>
@@ -671,7 +666,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>2029</v>
@@ -703,7 +698,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>2030</v>
@@ -735,7 +730,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12">
         <v>2031</v>
@@ -767,7 +762,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13">
         <v>2032</v>
@@ -799,7 +794,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B14">
         <v>2021</v>
@@ -831,7 +826,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15">
         <v>2022</v>
@@ -863,7 +858,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16">
         <v>2023</v>
@@ -895,7 +890,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17">
         <v>2024</v>
@@ -927,7 +922,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B18">
         <v>2025</v>
@@ -959,7 +954,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B19">
         <v>2026</v>
@@ -991,7 +986,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20">
         <v>2027</v>
@@ -1023,7 +1018,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21">
         <v>2028</v>
@@ -1055,7 +1050,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B22">
         <v>2029</v>
@@ -1087,7 +1082,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B23">
         <v>2030</v>
@@ -1119,7 +1114,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B24">
         <v>2031</v>
@@ -1151,7 +1146,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B25">
         <v>2032</v>
@@ -1183,7 +1178,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B26">
         <v>2021</v>
@@ -1215,7 +1210,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B27">
         <v>2022</v>
@@ -1247,7 +1242,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B28">
         <v>2023</v>
@@ -1279,7 +1274,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B29">
         <v>2024</v>
@@ -1311,7 +1306,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B30">
         <v>2025</v>
@@ -1343,7 +1338,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B31">
         <v>2026</v>
@@ -1375,7 +1370,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B32">
         <v>2027</v>
@@ -1407,7 +1402,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B33">
         <v>2028</v>
@@ -1439,7 +1434,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B34">
         <v>2029</v>
@@ -1471,7 +1466,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B35">
         <v>2030</v>
@@ -1503,7 +1498,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B36">
         <v>2031</v>
@@ -1535,7 +1530,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B37">
         <v>2032</v>
@@ -1567,7 +1562,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B38">
         <v>2021</v>
@@ -1599,7 +1594,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B39">
         <v>2022</v>
@@ -1631,7 +1626,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B40">
         <v>2023</v>
@@ -1663,7 +1658,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B41">
         <v>2024</v>
@@ -1695,7 +1690,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B42">
         <v>2025</v>
@@ -1727,7 +1722,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B43">
         <v>2026</v>
@@ -1759,7 +1754,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B44">
         <v>2027</v>
@@ -1791,7 +1786,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B45">
         <v>2028</v>
@@ -1823,7 +1818,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B46">
         <v>2029</v>
@@ -1855,7 +1850,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B47">
         <v>2030</v>
@@ -1887,7 +1882,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B48">
         <v>2031</v>
@@ -1919,7 +1914,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B49">
         <v>2032</v>

--- a/doc/tables/VRML_decision_table_SCA.xlsx
+++ b/doc/tables/VRML_decision_table_SCA.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="10">
   <si>
     <t>Year</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Long-term Equil. Yield (MSY proxy, $SPR_{50\%}$), with buffer</t>
+  </si>
+  <si>
+    <t>Scenario</t>
   </si>
 </sst>
 </file>
@@ -370,9 +373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A49"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -380,6 +381,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
